--- a/genshin/504892312101269245_2021-03-22_14-00-02.xlsx
+++ b/genshin/504892312101269245_2021-03-22_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-29 19:40:09</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44284.81954861111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>4330644210</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:59:47</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44283.9165162037</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -673,10 +685,8 @@
           <t>4329177157</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:42:13</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44283.69598379629</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -744,10 +754,8 @@
           <t>4326863532</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-28 06:30:03</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44283.27086805556</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -811,10 +819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-27 22:12:43</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44282.92549768519</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -878,10 +884,8 @@
           <t>4301179913</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-27 19:22:33</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44282.80732638889</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -945,10 +949,8 @@
           <t>4301186903</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-27 12:08:32</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44282.50592592593</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1020,10 +1022,8 @@
           <t>4301186903</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-27 06:56:26</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44282.28918981482</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1099,10 +1099,8 @@
           <t>4321690353</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-27 05:41:20</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44282.23703703703</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1166,10 +1164,8 @@
           <t>4301491421</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-27 03:11:19</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44282.1328587963</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1237,10 +1233,8 @@
           <t>4301205291</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-26 10:01:15</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44281.41753472222</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1308,10 +1302,8 @@
           <t>4301205291</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:29:33</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44280.8121875</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1379,10 +1371,8 @@
           <t>4314760516</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:53:18</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44280.78701388889</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1454,10 +1444,8 @@
           <t>4301205291</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:35:18</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44280.77451388889</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1525,10 +1513,8 @@
           <t>4314817394</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:21:44</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44280.76509259259</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1592,10 +1578,8 @@
           <t>4301205291</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:09:31</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44280.7566087963</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1663,10 +1647,8 @@
           <t>4314760516</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:07:53</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44280.75547453704</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1734,10 +1716,8 @@
           <t>4301491421</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:18:26</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44280.67946759259</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1809,10 +1789,8 @@
           <t>4312548717</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-25 03:46:25</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44280.15723379629</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1880,10 +1858,8 @@
           <t>4303459382</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:50:54</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44279.82701388889</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1951,10 +1927,8 @@
           <t>4301168106</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:50:26</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44279.82668981481</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2022,10 +1996,8 @@
           <t>4310554495</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:53:54</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44279.78743055555</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2093,10 +2065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:00:26</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44279.75030092592</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2164,10 +2134,8 @@
           <t>4301468444</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-24 17:58:22</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44279.74886574074</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2235,10 +2203,8 @@
           <t>4301237761</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-24 17:56:06</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44279.74729166667</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2306,10 +2272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-24 14:14:44</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44279.59356481482</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2385,10 +2349,8 @@
           <t>4309584280</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-24 14:11:51</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44279.5915625</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2452,10 +2414,8 @@
           <t>4303459382</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-24 10:31:12</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44279.43833333333</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2519,10 +2479,8 @@
           <t>4308287672</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-24 05:22:53</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44279.22422453704</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2594,10 +2552,8 @@
           <t>4301201554</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-24 05:17:58</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44279.22081018519</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2669,10 +2625,8 @@
           <t>4301201554</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-24 05:17:41</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44279.22061342592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2744,10 +2698,8 @@
           <t>4301256796</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-24 02:20:07</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44279.09730324074</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2815,10 +2767,8 @@
           <t>4301168106</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-24 02:19:52</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44279.09712962963</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2886,10 +2836,8 @@
           <t>4308153491</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-24 02:18:24</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44279.09611111111</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2957,10 +2905,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:46:33</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44279.07399305556</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3036,10 +2982,8 @@
           <t>4308103689</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:43:03</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44279.0715625</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -3115,10 +3059,8 @@
           <t>4308081283</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:30:15</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44279.06267361111</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3194,10 +3136,8 @@
           <t>4301374248</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:46:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44278.99068287037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3273,10 +3213,8 @@
           <t>4307693594</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:40:28</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44278.98643518519</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3340,10 +3278,8 @@
           <t>4307692655</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:39:52</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44278.98601851852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3407,10 +3343,8 @@
           <t>4307653288</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:33:08</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44278.98134259259</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3474,10 +3408,8 @@
           <t>4307418488</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:49:12</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44278.95083333334</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3537,10 +3469,8 @@
           <t>4301162742</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:59:32</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44278.87467592592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3612,10 +3542,8 @@
           <t>4306814077</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:47:06</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44278.86604166667</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3683,10 +3611,8 @@
           <t>4306614011</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:02:55</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44278.8353587963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3746,10 +3672,8 @@
           <t>4301491421</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:18:50</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44278.80474537037</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3813,10 +3737,8 @@
           <t>4305981889</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:41:51</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44278.73739583333</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3892,10 +3814,8 @@
           <t>4305836184</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:02:53</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44278.71033564815</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3959,10 +3879,8 @@
           <t>4301276891</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:48:21</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44278.70024305556</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4026,10 +3944,8 @@
           <t>4301276891</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:41:35</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44278.69554398148</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4093,10 +4009,8 @@
           <t>4301276891</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:40:47</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44278.69498842592</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4160,10 +4074,8 @@
           <t>4305749071</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:39:25</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44278.69403935185</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4227,10 +4139,8 @@
           <t>4301491421</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:51:00</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44278.66041666667</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4307,10 +4217,8 @@
           <t>4301491421</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:13:14</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44278.63418981482</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4374,10 +4282,8 @@
           <t>4301703365</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:48:02</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44278.53335648148</v>
       </c>
       <c r="I56" t="n">
         <v>4</v>
@@ -4453,10 +4359,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:06:41</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44278.5046412037</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4528,10 +4432,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:04:47</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44278.50332175926</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4603,10 +4505,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-23 11:52:37</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44278.49487268519</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4678,10 +4578,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-23 10:55:43</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44278.45535879629</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4759,10 +4657,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-23 10:18:39</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44278.42961805555</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4830,10 +4726,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-23 09:01:00</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44278.37569444445</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4897,10 +4791,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-23 08:59:31</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44278.37466435185</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4972,10 +4864,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-23 08:59:03</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44278.37434027778</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5039,10 +4929,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-23 08:56:31</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44278.37258101852</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5106,10 +4994,8 @@
           <t>4301491421</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-23 08:49:24</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44278.36763888889</v>
       </c>
       <c r="I66" t="n">
         <v>6</v>
@@ -5186,10 +5072,8 @@
           <t>4301484053</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-23 08:46:36</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44278.36569444444</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5249,10 +5133,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-23 08:40:28</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44278.36143518519</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5328,10 +5210,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-23 08:38:16</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44278.35990740741</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -5403,10 +5283,8 @@
           <t>4304209325</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-23 08:04:47</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44278.33665509259</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5470,10 +5348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-23 07:51:05</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44278.32714120371</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5541,10 +5417,8 @@
           <t>4304127204</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-23 07:11:09</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44278.29940972223</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5616,10 +5490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-23 00:57:09</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44278.0396875</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5683,10 +5555,8 @@
           <t>4301491421</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-23 00:45:17</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44278.03144675926</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5750,10 +5620,8 @@
           <t>4303720345</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-23 00:31:55</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44278.02216435185</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5829,10 +5697,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-23 00:24:09</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44278.01677083333</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5904,10 +5770,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-23 00:19:52</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44278.0137962963</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5971,10 +5835,8 @@
           <t>4303586484</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-22 23:58:30</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44277.99895833333</v>
       </c>
       <c r="I78" t="n">
         <v>15</v>
@@ -6042,10 +5904,8 @@
           <t>4303459382</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-22 23:33:34</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44277.98164351852</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -6117,10 +5977,8 @@
           <t>4303279861</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-22 22:59:27</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44277.95795138889</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6196,10 +6054,8 @@
           <t>4303171228</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-22 22:57:53</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44277.95686342593</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6267,10 +6123,8 @@
           <t>4303232377</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-22 22:49:30</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44277.95104166667</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6338,10 +6192,8 @@
           <t>4303171228</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-22 22:37:28</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44277.94268518518</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -6418,10 +6270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-22 22:27:28</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44277.93574074074</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6489,10 +6339,8 @@
           <t>4302954431</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-22 22:25:13</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44277.93417824074</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6560,10 +6408,8 @@
           <t>4302989703</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-22 22:05:30</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44277.92048611111</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6631,10 +6477,8 @@
           <t>4302954431</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-22 21:58:27</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44277.91559027778</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6710,10 +6554,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-22 21:56:56</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44277.91453703704</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6789,10 +6631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-22 21:53:00</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44277.91180555556</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6856,10 +6696,8 @@
           <t>4302679833</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-22 21:01:59</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44277.87637731482</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -6931,10 +6769,8 @@
           <t>4301374248</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-22 21:00:01</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44277.87501157408</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7002,10 +6838,8 @@
           <t>4302665508</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-22 20:57:33</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44277.87329861111</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7073,10 +6907,8 @@
           <t>4302652594</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-22 20:55:33</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44277.87190972222</v>
       </c>
       <c r="I93" t="n">
         <v>4</v>
@@ -7140,10 +6972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-22 20:48:57</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44277.86732638889</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7211,10 +7041,8 @@
           <t>4301892809</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-22 20:39:43</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44277.86091435186</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7290,10 +7118,8 @@
           <t>4302438737</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-22 20:09:02</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44277.83960648148</v>
       </c>
       <c r="I96" t="n">
         <v>20</v>
@@ -7369,10 +7195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-22 20:06:27</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44277.8378125</v>
       </c>
       <c r="I97" t="n">
         <v>12</v>
@@ -7436,10 +7260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-22 19:47:17</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44277.82450231481</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7503,10 +7325,8 @@
           <t>4301276891</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-22 19:30:50</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44277.8130787037</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7570,10 +7390,8 @@
           <t>4302256590</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-22 19:27:34</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44277.81081018518</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7637,10 +7455,8 @@
           <t>4302210432</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-22 19:16:34</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44277.8031712963</v>
       </c>
       <c r="I101" t="n">
         <v>25</v>
@@ -7716,10 +7532,8 @@
           <t>4301137050</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-22 19:01:06</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44277.79243055556</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7783,10 +7597,8 @@
           <t>4301374248</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:52:54</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44277.78673611111</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -7878,10 +7690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:52:14</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44277.78627314815</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -7949,10 +7759,8 @@
           <t>4302064163</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:46:05</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44277.78200231482</v>
       </c>
       <c r="I105" t="n">
         <v>6</v>
@@ -8028,10 +7836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:39:52</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44277.77768518519</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8111,10 +7917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:39:29</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44277.77741898148</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8186,10 +7990,8 @@
           <t>4302031164</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:37:14</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44277.77585648148</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8253,10 +8055,8 @@
           <t>4301276891</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:32:23</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44277.77248842592</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8328,10 +8128,8 @@
           <t>4301999229</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:32:10</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44277.77233796296</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8395,10 +8193,8 @@
           <t>4302003281</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:31:54</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44277.77215277778</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8466,10 +8262,8 @@
           <t>4301407983</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:27:49</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44277.76931712963</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8533,10 +8327,8 @@
           <t>4301980435</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:25:57</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44277.76802083333</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8596,10 +8388,8 @@
           <t>4301610974</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:23:55</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44277.76660879629</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8671,10 +8461,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:18:47</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44277.76304398148</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8746,10 +8534,8 @@
           <t>4301156377</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:17:33</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44277.7621875</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8821,10 +8607,8 @@
           <t>4301916907</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:11:55</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44277.75827546296</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8892,10 +8676,8 @@
           <t>4301407983</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:09:10</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44277.75636574074</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8963,10 +8745,8 @@
           <t>4301892809</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:06:27</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44277.75447916667</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9038,10 +8818,8 @@
           <t>4301864614</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:01:03</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44277.75072916667</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9113,10 +8891,8 @@
           <t>4301864345</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:00:53</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44277.75061342592</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9188,10 +8964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:00:29</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44277.75033564815</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9255,10 +9029,8 @@
           <t>4301847952</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:56:29</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44277.74755787037</v>
       </c>
       <c r="I123" t="n">
         <v>9</v>
@@ -9330,10 +9102,8 @@
           <t>4301847860</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:56:25</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44277.74751157407</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9405,10 +9175,8 @@
           <t>4301216819</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:55:31</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44277.74688657407</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9484,10 +9252,8 @@
           <t>4301838892</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:55:01</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44277.74653935185</v>
       </c>
       <c r="I126" t="n">
         <v>46</v>
@@ -9559,10 +9325,8 @@
           <t>4301217183</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:52:17</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44277.7446412037</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9638,10 +9402,8 @@
           <t>4301822914</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:50:39</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44277.74350694445</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9705,10 +9467,8 @@
           <t>4301216819</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:49:42</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44277.74284722222</v>
       </c>
       <c r="I129" t="n">
         <v>3</v>
@@ -9772,10 +9532,8 @@
           <t>4301816748</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:48:05</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44277.74172453704</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9852,10 +9610,8 @@
           <t>4301782677</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:40:37</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44277.73653935185</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -9923,10 +9679,8 @@
           <t>4301773773</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:37:45</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44277.73454861111</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9994,10 +9748,8 @@
           <t>4301156377</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:36:43</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44277.73383101852</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10069,10 +9821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:36:27</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44277.73364583333</v>
       </c>
       <c r="I134" t="n">
         <v>3</v>
@@ -10140,10 +9890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:35:04</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44277.73268518518</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10207,10 +9955,8 @@
           <t>4301156377</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:32:13</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44277.73070601852</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10282,10 +10028,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:30:15</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44277.72934027778</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10357,10 +10101,8 @@
           <t>4301374248</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:29:28</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44277.72879629629</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10432,10 +10174,8 @@
           <t>4301226746</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:27:58</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44277.72775462963</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10507,10 +10247,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:24:34</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44277.72539351852</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10591,10 +10329,8 @@
           <t>4301374248</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:23:26</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44277.72460648148</v>
       </c>
       <c r="I141" t="n">
         <v>30</v>
@@ -10666,10 +10402,8 @@
           <t>4301205291</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:20:55</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44277.7228587963</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10737,10 +10471,8 @@
           <t>4301167161</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:19:25</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44277.72181712963</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10800,10 +10532,8 @@
           <t>4301703365</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:18:43</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44277.72133101852</v>
       </c>
       <c r="I144" t="n">
         <v>33</v>
@@ -10875,10 +10605,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:13:13</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44277.71751157408</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10954,10 +10682,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:11:11</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44277.71609953704</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11033,10 +10759,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:10:51</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44277.71586805556</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11108,10 +10832,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:09:48</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44277.71513888889</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11183,10 +10905,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:07:37</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44277.71362268519</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11250,10 +10970,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:07:34</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44277.71358796296</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11329,10 +11047,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:04:48</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44277.71166666667</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11396,10 +11112,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:02:26</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44277.71002314815</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11471,10 +11185,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:00:54</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44277.70895833334</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11546,10 +11258,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-22 17:00:03</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44277.70836805556</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11613,10 +11323,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:58:26</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44277.70724537037</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11688,10 +11396,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:57:26</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44277.70655092593</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11763,10 +11469,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:57:26</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44277.70655092593</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11842,10 +11546,8 @@
           <t>4301206424</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:54:49</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44277.70473379629</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11910,10 +11612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:53:21</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44277.70371527778</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11981,10 +11681,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:50:45</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44277.70190972222</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12048,10 +11746,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:49:43</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44277.70119212963</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12123,10 +11819,8 @@
           <t>4301610974</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:49:17</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44277.70089120371</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12194,10 +11888,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:48:42</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44277.70048611111</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12261,10 +11953,8 @@
           <t>4301205291</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:48:38</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44277.70043981481</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12340,10 +12030,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:46:50</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44277.69918981481</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -12420,10 +12108,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:45:41</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44277.6983912037</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12499,10 +12185,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:45:01</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44277.69792824074</v>
       </c>
       <c r="I167" t="n">
         <v>5</v>
@@ -12574,10 +12258,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:43:29</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44277.69686342592</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12649,10 +12331,8 @@
           <t>4301474468</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:43:05</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44277.69658564815</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12720,10 +12400,8 @@
           <t>4301402049</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:41:33</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44277.69552083333</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12791,10 +12469,8 @@
           <t>4301576332</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:40:27</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44277.69475694445</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12862,10 +12538,8 @@
           <t>4301221892</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:40:07</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44277.69452546296</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12937,10 +12611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:39:01</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44277.69376157408</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13004,10 +12676,8 @@
           <t>4301576332</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:38:11</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44277.69318287037</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13075,10 +12745,8 @@
           <t>4301311492</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:36:59</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44277.69234953704</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13154,10 +12822,8 @@
           <t>4301205291</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:35:24</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44277.69125</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13226,10 +12892,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:32:05</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44277.68894675926</v>
       </c>
       <c r="I177" t="n">
         <v>11</v>
@@ -13333,10 +12997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:31:13</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44277.68834490741</v>
       </c>
       <c r="I178" t="n">
         <v>1063</v>
@@ -13404,10 +13066,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:30:32</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44277.68787037037</v>
       </c>
       <c r="I179" t="n">
         <v>4</v>
@@ -13479,10 +13139,8 @@
           <t>4301546878</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:29:00</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44277.68680555555</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13554,10 +13212,8 @@
           <t>4301407983</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:28:42</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44277.68659722222</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13633,10 +13289,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:28:42</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44277.68659722222</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13714,10 +13368,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:27:09</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44277.68552083334</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13789,10 +13441,8 @@
           <t>4301532756</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:24:47</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44277.68387731481</v>
       </c>
       <c r="I184" t="n">
         <v>7</v>
@@ -13860,10 +13510,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:21:35</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44277.68165509259</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13939,10 +13587,8 @@
           <t>4301522209</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:21:08</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44277.68134259259</v>
       </c>
       <c r="I186" t="n">
         <v>2</v>
@@ -14002,10 +13648,8 @@
           <t>4301513795</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:20:36</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44277.68097222222</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14077,10 +13721,8 @@
           <t>4301518426</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:20:28</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44277.68087962963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14152,10 +13794,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:20:14</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44277.68071759259</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14227,10 +13867,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:16:20</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44277.67800925926</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14306,10 +13944,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:11:39</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44277.67475694444</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14381,10 +14017,8 @@
           <t>4301407983</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:10:58</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44277.67428240741</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14452,10 +14086,8 @@
           <t>4301484053</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:10:39</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44277.6740625</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14531,10 +14163,8 @@
           <t>4301491421</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:09:52</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44277.67351851852</v>
       </c>
       <c r="I194" t="n">
         <v>20</v>
@@ -14617,10 +14247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:09:43</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44277.67341435186</v>
       </c>
       <c r="I195" t="n">
         <v>6</v>
@@ -14686,10 +14314,8 @@
           <t>4301490564</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:08:58</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44277.67289351852</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14753,10 +14379,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:08:54</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44277.67284722222</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14832,10 +14456,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:06:52</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44277.67143518518</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14911,10 +14533,8 @@
           <t>4301407983</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:06:44</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44277.67134259259</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14978,10 +14598,8 @@
           <t>4301474468</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:06:12</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44277.67097222222</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15049,10 +14667,8 @@
           <t>4301468444</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:04:54</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44277.67006944444</v>
       </c>
       <c r="I201" t="n">
         <v>12</v>
@@ -15128,10 +14744,8 @@
           <t>4301473027</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:04:45</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44277.66996527778</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15199,10 +14813,8 @@
           <t>4301459782</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:01:25</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44277.66765046296</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15278,10 +14890,8 @@
           <t>4301447199</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:59:02</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44277.66599537037</v>
       </c>
       <c r="I204" t="n">
         <v>9</v>
@@ -15357,10 +14967,8 @@
           <t>4301276454</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:58:44</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44277.66578703704</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15428,10 +15036,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:58:06</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44277.66534722222</v>
       </c>
       <c r="I206" t="n">
         <v>3</v>
@@ -15507,10 +15113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:57:41</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44277.66505787037</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15578,10 +15182,8 @@
           <t>4301450859</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:57:00</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44277.66458333333</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15657,10 +15259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:56:01</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44277.66390046296</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15720,10 +15320,8 @@
           <t>4301294028</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:54:45</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44277.66302083333</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15799,10 +15397,8 @@
           <t>4301221264</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:54:18</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44277.66270833334</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15866,10 +15462,8 @@
           <t>4301428982</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:49:58</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44277.65969907407</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15933,10 +15527,8 @@
           <t>4301311492</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:48:45</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44277.65885416666</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16004,10 +15596,8 @@
           <t>4301276891</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:48:06</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44277.65840277778</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16071,10 +15661,8 @@
           <t>4301422583</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:47:58</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44277.65831018519</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16152,10 +15740,8 @@
           <t>4301430951</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:47:58</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44277.65831018519</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -16223,10 +15809,8 @@
           <t>4301206424</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:45:10</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44277.65636574074</v>
       </c>
       <c r="I217" t="n">
         <v>5</v>
@@ -16286,10 +15870,8 @@
           <t>4301417215</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:44:01</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44277.65556712963</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16357,10 +15939,8 @@
           <t>4301407983</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:42:53</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44277.65478009259</v>
       </c>
       <c r="I219" t="n">
         <v>6</v>
@@ -16428,10 +16008,8 @@
           <t>4301218954</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:42:52</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44277.65476851852</v>
       </c>
       <c r="I220" t="n">
         <v>2</v>
@@ -16491,10 +16069,8 @@
           <t>4301406652</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:41:26</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44277.65377314815</v>
       </c>
       <c r="I221" t="n">
         <v>11</v>
@@ -16566,10 +16142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:41:14</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44277.65363425926</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16641,10 +16215,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:40:08</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44277.65287037037</v>
       </c>
       <c r="I223" t="n">
         <v>5</v>
@@ -16716,10 +16288,8 @@
           <t>4301402049</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:38:29</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44277.65172453703</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16791,10 +16361,8 @@
           <t>4301401668</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:38:04</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44277.65143518519</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16870,10 +16438,8 @@
           <t>4301177803</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:37:31</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44277.65105324074</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16946,10 +16512,8 @@
           <t>4301374248</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:32:34</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44277.64761574074</v>
       </c>
       <c r="I227" t="n">
         <v>52</v>
@@ -17017,10 +16581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:31:10</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44277.64664351852</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17092,10 +16654,8 @@
           <t>4301385313</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:31:03</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44277.6465625</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17167,10 +16727,8 @@
           <t>4301374248</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:29:54</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44277.64576388889</v>
       </c>
       <c r="I230" t="n">
         <v>162</v>
@@ -17234,10 +16792,8 @@
           <t>4301375743</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:29:29</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44277.64547453704</v>
       </c>
       <c r="I231" t="n">
         <v>6</v>
@@ -17305,10 +16861,8 @@
           <t>4301172097</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:27:59</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44277.64443287037</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17372,10 +16926,8 @@
           <t>4301366475</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:25:34</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44277.64275462963</v>
       </c>
       <c r="I233" t="n">
         <v>8</v>
@@ -17447,10 +16999,8 @@
           <t>4301320704</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:24:21</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44277.64190972222</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17522,10 +17072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:24:17</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44277.64186342592</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17597,10 +17145,8 @@
           <t>4301365105</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:24:04</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44277.64171296296</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17664,10 +17210,8 @@
           <t>4301218954</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:23:55</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44277.64160879629</v>
       </c>
       <c r="I237" t="n">
         <v>4</v>
@@ -17731,10 +17275,8 @@
           <t>4301358325</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:23:09</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44277.64107638889</v>
       </c>
       <c r="I238" t="n">
         <v>4</v>
@@ -17806,10 +17348,8 @@
           <t>4301320704</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:21:11</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44277.63971064815</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17877,10 +17417,8 @@
           <t>4301278634</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:21:08</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44277.63967592592</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17956,10 +17494,8 @@
           <t>4301278634</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:20:42</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44277.639375</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18031,10 +17567,8 @@
           <t>4301261935</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:20:02</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44277.63891203704</v>
       </c>
       <c r="I242" t="n">
         <v>4</v>
@@ -18102,10 +17636,8 @@
           <t>4301355081</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:19:31</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44277.63855324074</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18181,10 +17713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:18:39</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44277.63795138889</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18260,10 +17790,8 @@
           <t>4301217183</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:16:56</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44277.63675925926</v>
       </c>
       <c r="I245" t="n">
         <v>2</v>
@@ -18323,10 +17851,8 @@
           <t>4301164183</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:16:32</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44277.63648148148</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18398,10 +17924,8 @@
           <t>4301164183</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:15:58</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44277.63608796296</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
@@ -18473,10 +17997,8 @@
           <t>4301217183</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:15:28</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44277.63574074074</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18544,10 +18066,8 @@
           <t>4301168106</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:14:40</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44277.63518518519</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18615,10 +18135,8 @@
           <t>4301329968</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:13:51</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44277.63461805556</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18694,10 +18212,8 @@
           <t>4301329945</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:13:49</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44277.63459490741</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18765,10 +18281,8 @@
           <t>4301331119</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:13:22</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44277.63428240741</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18836,10 +18350,8 @@
           <t>4301329116</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:12:53</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44277.63394675926</v>
       </c>
       <c r="I253" t="n">
         <v>4</v>
@@ -18915,10 +18427,8 @@
           <t>4301200523</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:12:15</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44277.63350694445</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18986,10 +18496,8 @@
           <t>4301328389</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:12:02</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44277.63335648148</v>
       </c>
       <c r="I255" t="n">
         <v>2</v>
@@ -19057,10 +18565,8 @@
           <t>4301167097</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:10:47</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44277.63248842592</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19128,10 +18634,8 @@
           <t>4301322983</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:10:33</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44277.63232638889</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19203,10 +18707,8 @@
           <t>4301326497</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:09:52</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44277.63185185185</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19282,10 +18784,8 @@
           <t>4301325995</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:09:16</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44277.63143518518</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19358,10 +18858,8 @@
           <t>4301321824</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:09:16</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44277.63143518518</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19433,10 +18931,8 @@
           <t>4301168106</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:09:02</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44277.63127314814</v>
       </c>
       <c r="I261" t="n">
         <v>6</v>
@@ -19512,10 +19008,8 @@
           <t>4301317051</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:08:52</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44277.63115740741</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19579,10 +19073,8 @@
           <t>4301320704</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:08:05</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44277.63061342593</v>
       </c>
       <c r="I263" t="n">
         <v>3</v>
@@ -19650,10 +19142,8 @@
           <t>4301218954</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:07:32</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44277.63023148148</v>
       </c>
       <c r="I264" t="n">
         <v>7</v>
@@ -19717,10 +19207,8 @@
           <t>4301309273</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:06:31</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44277.62952546297</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19796,10 +19284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:06:16</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44277.62935185185</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19867,10 +19353,8 @@
           <t>4301311492</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:04:14</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44277.62793981482</v>
       </c>
       <c r="I267" t="n">
         <v>35</v>
@@ -19946,10 +19430,8 @@
           <t>4301156377</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:03:31</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44277.62744212963</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20021,10 +19503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:03:11</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44277.62721064815</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20088,10 +19568,8 @@
           <t>4301275968</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:02:49</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44277.62695601852</v>
       </c>
       <c r="I270" t="n">
         <v>4</v>
@@ -20159,10 +19637,8 @@
           <t>4301300642</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:01:43</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44277.62619212963</v>
       </c>
       <c r="I271" t="n">
         <v>3</v>
@@ -20226,10 +19702,8 @@
           <t>4301299192</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:01:34</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44277.62608796296</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20297,10 +19771,8 @@
           <t>4301294028</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:00:40</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44277.62546296296</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20368,10 +19840,8 @@
           <t>4301289379</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:00:17</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44277.62519675926</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20447,10 +19917,8 @@
           <t>4301296999</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:59:06</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44277.624375</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20514,10 +19982,8 @@
           <t>4301273417</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:59:03</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44277.62434027778</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20589,10 +20055,8 @@
           <t>4301296284</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:58:17</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44277.62380787037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20660,10 +20124,8 @@
           <t>4301291288</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:57:37</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44277.62334490741</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20735,10 +20197,8 @@
           <t>4301286376</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:56:49</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44277.62278935185</v>
       </c>
       <c r="I279" t="n">
         <v>19</v>
@@ -20814,10 +20274,8 @@
           <t>4301284301</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:56:06</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44277.62229166667</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20893,10 +20351,8 @@
           <t>4301220314</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:55:50</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44277.62210648148</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -20961,10 +20417,8 @@
           <t>4301168106</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:55:07</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44277.6216087963</v>
       </c>
       <c r="I282" t="n">
         <v>14</v>
@@ -21032,10 +20486,8 @@
           <t>4301283146</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:54:48</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44277.62138888889</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21111,10 +20563,8 @@
           <t>4301278634</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:54:39</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44277.62128472222</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21190,10 +20640,8 @@
           <t>4301274287</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:54:30</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44277.62118055556</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21265,10 +20713,8 @@
           <t>4301282292</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:53:53</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44277.62075231481</v>
       </c>
       <c r="I286" t="n">
         <v>4</v>
@@ -21332,10 +20778,8 @@
           <t>4301273666</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:53:48</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44277.62069444444</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21411,10 +20855,8 @@
           <t>4301139835</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:53:36</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44277.62055555556</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21486,10 +20928,8 @@
           <t>4301273417</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:53:32</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44277.62050925926</v>
       </c>
       <c r="I289" t="n">
         <v>8</v>
@@ -21553,10 +20993,8 @@
           <t>4301281879</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:53:26</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44277.62043981482</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21632,10 +21070,8 @@
           <t>4301276891</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:52:45</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44277.61996527778</v>
       </c>
       <c r="I291" t="n">
         <v>8</v>
@@ -21699,10 +21135,8 @@
           <t>4301276454</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:52:16</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44277.61962962963</v>
       </c>
       <c r="I292" t="n">
         <v>3</v>
@@ -21762,10 +21196,8 @@
           <t>4301276161</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:51:58</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44277.61942129629</v>
       </c>
       <c r="I293" t="n">
         <v>6</v>
@@ -21833,10 +21265,8 @@
           <t>4301275968</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:51:46</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44277.61928240741</v>
       </c>
       <c r="I294" t="n">
         <v>70</v>
@@ -21896,10 +21326,8 @@
           <t>4301275552</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:51:18</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44277.61895833333</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21975,10 +21403,8 @@
           <t>4301167097</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:51:07</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44277.61883101852</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22054,10 +21480,8 @@
           <t>4301217183</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:50:56</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44277.6187037037</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22133,10 +21557,8 @@
           <t>4301270841</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:50:41</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44277.61853009259</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22208,10 +21630,8 @@
           <t>4301237761</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:50:35</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44277.61846064815</v>
       </c>
       <c r="I299" t="n">
         <v>8</v>
@@ -22279,10 +21699,8 @@
           <t>4301266848</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:50:30</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44277.61840277778</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22346,10 +21764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:48:09</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44277.61677083333</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22425,10 +21841,8 @@
           <t>4301266848</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:47:59</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44277.61665509259</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22496,10 +21910,8 @@
           <t>4301258101</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:47:36</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44277.61638888889</v>
       </c>
       <c r="I303" t="n">
         <v>6</v>
@@ -22575,10 +21987,8 @@
           <t>4301258061</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:47:34</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44277.61636574074</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22650,10 +22060,8 @@
           <t>4301262059</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:47:29</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44277.61630787037</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22725,10 +22133,8 @@
           <t>4301266293</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:47:23</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44277.61623842592</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22800,10 +22206,8 @@
           <t>4301261935</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:47:22</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44277.61622685185</v>
       </c>
       <c r="I307" t="n">
         <v>6</v>
@@ -22867,10 +22271,8 @@
           <t>4301265749</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:46:46</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44277.61581018518</v>
       </c>
       <c r="I308" t="n">
         <v>9</v>
@@ -22934,10 +22336,8 @@
           <t>4301256796</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:46:10</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44277.61539351852</v>
       </c>
       <c r="I309" t="n">
         <v>7</v>
@@ -23005,10 +22405,8 @@
           <t>4301255675</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:44:57</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44277.61454861111</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23076,10 +22474,8 @@
           <t>4301218954</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:44:54</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44277.61451388889</v>
       </c>
       <c r="I311" t="n">
         <v>20</v>
@@ -23147,10 +22543,8 @@
           <t>4301253242</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:44:03</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44277.61392361111</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23222,10 +22616,8 @@
           <t>4301253008</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:43:47</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44277.61373842593</v>
       </c>
       <c r="I313" t="n">
         <v>17</v>
@@ -23293,10 +22685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:42:17</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44277.61269675926</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23372,10 +22762,8 @@
           <t>4301242649</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:41:32</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44277.61217592593</v>
       </c>
       <c r="I315" t="n">
         <v>51</v>
@@ -23443,10 +22831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:41:11</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44277.61193287037</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23506,10 +22892,8 @@
           <t>4301250643</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:41:07</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44277.61188657407</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23585,10 +22969,8 @@
           <t>4301242065</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:40:54</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44277.61173611111</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23660,10 +23042,8 @@
           <t>4301245456</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:40:09</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44277.61121527778</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23735,10 +23115,8 @@
           <t>4301239162</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:39:30</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44277.61076388889</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23806,10 +23184,8 @@
           <t>4301238961</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:39:18</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44277.610625</v>
       </c>
       <c r="I321" t="n">
         <v>3</v>
@@ -23869,10 +23245,8 @@
           <t>4301237761</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:37:57</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44277.6096875</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23940,10 +23314,8 @@
           <t>4301228523</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:36:55</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44277.60896990741</v>
       </c>
       <c r="I323" t="n">
         <v>5</v>
@@ -24011,10 +23383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:36:25</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44277.60862268518</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24086,10 +23456,8 @@
           <t>4301231768</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:35:59</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44277.60832175926</v>
       </c>
       <c r="I325" t="n">
         <v>9</v>
@@ -24153,10 +23521,8 @@
           <t>4301235804</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:35:46</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44277.6081712963</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24224,10 +23590,8 @@
           <t>4301150908</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:35:41</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44277.60811342593</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24291,10 +23655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:35:23</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44277.60790509259</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24354,10 +23716,8 @@
           <t>4301226903</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:35:03</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44277.60767361111</v>
       </c>
       <c r="I329" t="n">
         <v>2</v>
@@ -24429,10 +23789,8 @@
           <t>4301226746</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:34:52</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44277.6075462963</v>
       </c>
       <c r="I330" t="n">
         <v>10</v>
@@ -24499,10 +23857,8 @@
           <t>4301224917</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:34:49</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44277.60751157408</v>
       </c>
       <c r="I331" t="n">
         <v>4</v>
@@ -24570,10 +23926,8 @@
           <t>4301230281</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:34:21</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44277.6071875</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24649,10 +24003,8 @@
           <t>4301200523</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:33:47</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44277.60679398148</v>
       </c>
       <c r="I333" t="n">
         <v>7</v>
@@ -24720,10 +24072,8 @@
           <t>4301225570</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:33:29</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44277.60658564815</v>
       </c>
       <c r="I334" t="n">
         <v>15</v>
@@ -24794,10 +24144,8 @@
           <t>4301218954</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:32:50</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44277.60613425926</v>
       </c>
       <c r="I335" t="n">
         <v>20</v>
@@ -24865,10 +24213,8 @@
           <t>4301214945</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:32:50</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44277.60613425926</v>
       </c>
       <c r="I336" t="n">
         <v>2</v>
@@ -24940,10 +24286,8 @@
           <t>4301186903</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:32:29</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44277.6058912037</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25011,10 +24355,8 @@
           <t>4301177803</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:32:27</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44277.60586805556</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25090,10 +24432,8 @@
           <t>4301200523</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:32:23</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44277.60582175926</v>
       </c>
       <c r="I339" t="n">
         <v>22</v>
@@ -25157,10 +24497,8 @@
           <t>4301221892</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:31:28</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44277.60518518519</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25232,10 +24570,8 @@
           <t>4301217183</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:30:55</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44277.60480324074</v>
       </c>
       <c r="I341" t="n">
         <v>5</v>
@@ -25299,10 +24635,8 @@
           <t>4301167097</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:30:50</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44277.60474537037</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25366,10 +24700,8 @@
           <t>4301221264</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:30:48</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44277.60472222222</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25433,10 +24765,8 @@
           <t>4301177803</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:30:32</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44277.60453703703</v>
       </c>
       <c r="I344" t="n">
         <v>58</v>
@@ -25504,10 +24834,8 @@
           <t>4301216819</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:30:29</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44277.60450231482</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25584,10 +24912,8 @@
           <t>4301220472</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:29:53</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44277.60408564815</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25655,10 +24981,8 @@
           <t>4301220362</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:29:45</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44277.60399305556</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25730,10 +25054,8 @@
           <t>4301220349</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:29:44</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44277.60398148148</v>
       </c>
       <c r="I348" t="n">
         <v>11</v>
@@ -25797,10 +25119,8 @@
           <t>4301220314</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:29:42</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44277.60395833333</v>
       </c>
       <c r="I349" t="n">
         <v>18</v>
@@ -25876,10 +25196,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:29:19</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44277.60369212963</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25947,10 +25265,8 @@
           <t>4301209860</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:29:13</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44277.60362268519</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26022,10 +25338,8 @@
           <t>4301206424</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:28:45</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44277.60329861111</v>
       </c>
       <c r="I352" t="n">
         <v>5</v>
@@ -26097,10 +25411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:28:40</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44277.60324074074</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26184,10 +25496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:27:38</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44277.60252314815</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26270,10 +25580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:27:33</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44277.60246527778</v>
       </c>
       <c r="I355" t="n">
         <v>167</v>
@@ -26337,10 +25645,8 @@
           <t>4301177803</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:26:52</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44277.60199074074</v>
       </c>
       <c r="I356" t="n">
         <v>31</v>
@@ -26404,10 +25710,8 @@
           <t>4301198297</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:26:36</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44277.60180555555</v>
       </c>
       <c r="I357" t="n">
         <v>5</v>
@@ -26479,10 +25783,8 @@
           <t>4301170805</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:26:18</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44277.60159722222</v>
       </c>
       <c r="I358" t="n">
         <v>8</v>
@@ -26554,10 +25856,8 @@
           <t>4301206936</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:26:04</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44277.60143518518</v>
       </c>
       <c r="I359" t="n">
         <v>10</v>
@@ -26633,10 +25933,8 @@
           <t>4301198647</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:25:55</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44277.60133101852</v>
       </c>
       <c r="I360" t="n">
         <v>10</v>
@@ -26712,10 +26010,8 @@
           <t>4301202618</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:25:54</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44277.60131944445</v>
       </c>
       <c r="I361" t="n">
         <v>35</v>
@@ -26791,10 +26087,8 @@
           <t>4301198297</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:25:31</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44277.60105324074</v>
       </c>
       <c r="I362" t="n">
         <v>102</v>
@@ -26858,10 +26152,8 @@
           <t>4301206424</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:25:31</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44277.60105324074</v>
       </c>
       <c r="I363" t="n">
         <v>74</v>
@@ -26929,10 +26221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:25:26</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44277.60099537037</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27004,10 +26294,8 @@
           <t>4301139835</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:25:23</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44277.60096064815</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27079,10 +26367,8 @@
           <t>4301202090</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:25:17</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44277.60089120371</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27150,10 +26436,8 @@
           <t>4301206190</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:25:15</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44277.60086805555</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27221,10 +26505,8 @@
           <t>4301201710</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:24:53</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44277.60061342592</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27292,10 +26574,8 @@
           <t>4301201554</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:24:42</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44277.60048611111</v>
       </c>
       <c r="I369" t="n">
         <v>3</v>
@@ -27364,10 +26644,8 @@
           <t>4301197512</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:24:38</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44277.60043981481</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27431,10 +26709,8 @@
           <t>4301162742</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:24:23</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44277.60026620371</v>
       </c>
       <c r="I371" t="n">
         <v>3</v>
@@ -27502,10 +26778,8 @@
           <t>4301205291</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:24:16</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44277.60018518518</v>
       </c>
       <c r="I372" t="n">
         <v>29</v>
@@ -27581,10 +26855,8 @@
           <t>4301186903</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:24:02</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44277.60002314814</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27648,10 +26920,8 @@
           <t>4301200523</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:23:33</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44277.5996875</v>
       </c>
       <c r="I374" t="n">
         <v>45</v>
@@ -27719,10 +26989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:23:29</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44277.59964120371</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -27790,10 +27058,8 @@
           <t>4301150908</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:22:44</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44277.59912037037</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27865,10 +27131,8 @@
           <t>4301189726</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:22:43</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44277.5991087963</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27936,10 +27200,8 @@
           <t>4301195504</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:22:28</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44277.59893518518</v>
       </c>
       <c r="I378" t="n">
         <v>18</v>
@@ -28015,10 +27277,8 @@
           <t>4301193525</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:22:21</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44277.59885416667</v>
       </c>
       <c r="I379" t="n">
         <v>8</v>
@@ -28082,10 +27342,8 @@
           <t>4301195310</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:22:15</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44277.59878472222</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28153,10 +27411,8 @@
           <t>4301167097</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:22:06</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44277.59868055556</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28224,10 +27480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:22:01</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44277.59862268518</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28299,10 +27553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:21:49</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44277.5984837963</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28374,10 +27626,8 @@
           <t>4301155571</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:20:42</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44277.59770833333</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28445,10 +27695,8 @@
           <t>4301191759</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:20:28</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44277.5975462963</v>
       </c>
       <c r="I385" t="n">
         <v>48</v>
@@ -28516,10 +27764,8 @@
           <t>4301150908</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:20:26</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44277.59752314815</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28591,10 +27837,8 @@
           <t>4301187249</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:20:02</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44277.59724537037</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28666,10 +27910,8 @@
           <t>4301186903</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:19:38</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44277.5969675926</v>
       </c>
       <c r="I388" t="n">
         <v>41</v>
@@ -28741,10 +27983,8 @@
           <t>4301186576</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:19:18</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44277.59673611111</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28820,10 +28060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:19:18</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44277.59673611111</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28895,10 +28133,8 @@
           <t>4301177803</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:19:10</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44277.59664351852</v>
       </c>
       <c r="I391" t="n">
         <v>5</v>
@@ -28966,10 +28202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:18:53</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44277.59644675926</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29045,10 +28279,8 @@
           <t>4301186136</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:18:50</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44277.59641203703</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29120,10 +28352,8 @@
           <t>4301179913</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:18:27</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44277.59614583333</v>
       </c>
       <c r="I394" t="n">
         <v>118</v>
@@ -29187,10 +28417,8 @@
           <t>4301178696</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:17:07</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44277.59521990741</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29254,10 +28482,8 @@
           <t>4301178162</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:16:33</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44277.59482638889</v>
       </c>
       <c r="I396" t="n">
         <v>5</v>
@@ -29325,10 +28551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:16:31</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44277.59480324074</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29400,10 +28624,8 @@
           <t>4301177876</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:16:12</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44277.59458333333</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29463,10 +28685,8 @@
           <t>4301177803</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:16:07</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44277.59452546296</v>
       </c>
       <c r="I399" t="n">
         <v>35</v>
@@ -29542,10 +28762,8 @@
           <t>4301177697</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:15:59</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44277.59443287037</v>
       </c>
       <c r="I400" t="n">
         <v>35</v>
@@ -29617,10 +28835,8 @@
           <t>4301173261</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:15:41</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44277.59422453704</v>
       </c>
       <c r="I401" t="n">
         <v>2</v>
@@ -29693,10 +28909,8 @@
           <t>4301169024</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:15:32</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44277.59412037037</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29760,10 +28974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:15:30</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44277.59409722222</v>
       </c>
       <c r="I403" t="n">
         <v>25</v>
@@ -29831,10 +29043,8 @@
           <t>4301168774</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:15:16</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44277.59393518518</v>
       </c>
       <c r="I404" t="n">
         <v>3</v>
@@ -29906,10 +29116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:15:03</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44277.59378472222</v>
       </c>
       <c r="I405" t="n">
         <v>285</v>
@@ -29973,10 +29181,8 @@
           <t>4301176846</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:15:01</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44277.59376157408</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30040,10 +29246,8 @@
           <t>4301164183</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:14:44</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44277.59356481482</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30111,10 +29315,8 @@
           <t>4301168106</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:14:35</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44277.59346064815</v>
       </c>
       <c r="I408" t="n">
         <v>27</v>
@@ -30182,10 +29384,8 @@
           <t>4301172097</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:14:25</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44277.59334490741</v>
       </c>
       <c r="I409" t="n">
         <v>8</v>
@@ -30249,10 +29449,8 @@
           <t>4301171901</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:14:12</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44277.59319444445</v>
       </c>
       <c r="I410" t="n">
         <v>10</v>
@@ -30320,10 +29518,8 @@
           <t>4301175689</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:13:42</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44277.59284722222</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30399,10 +29595,8 @@
           <t>4301167161</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:13:35</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44277.59276620371</v>
       </c>
       <c r="I412" t="n">
         <v>133</v>
@@ -30474,10 +29668,8 @@
           <t>4301167097</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:13:30</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44277.59270833333</v>
       </c>
       <c r="I413" t="n">
         <v>4</v>
@@ -30549,10 +29741,8 @@
           <t>4301166863</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:13:15</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44277.59253472222</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30628,10 +29818,8 @@
           <t>4301170805</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:12:59</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44277.59234953704</v>
       </c>
       <c r="I415" t="n">
         <v>7</v>
@@ -30707,10 +29895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:12:55</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44277.59230324074</v>
       </c>
       <c r="I416" t="n">
         <v>9</v>
@@ -30778,10 +29964,8 @@
           <t>4301157989</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:12:53</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44277.59228009259</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -30857,10 +30041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:12:29</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44277.59200231481</v>
       </c>
       <c r="I418" t="n">
         <v>32</v>
@@ -30931,10 +30113,8 @@
           <t>4301165937</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:12:15</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44277.59184027778</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31010,10 +30190,8 @@
           <t>4301164183</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:12:02</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44277.59168981481</v>
       </c>
       <c r="I420" t="n">
         <v>42</v>
@@ -31085,10 +30263,8 @@
           <t>4301165734</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:12:01</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44277.59167824074</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31156,10 +30332,8 @@
           <t>4301165545</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:11:48</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44277.59152777777</v>
       </c>
       <c r="I422" t="n">
         <v>26</v>
@@ -31243,10 +30417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:11:39</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44277.59142361111</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31317,10 +30489,8 @@
           <t>4301165283</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:11:33</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44277.59135416667</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31388,10 +30558,8 @@
           <t>4301163664</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:11:28</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44277.5912962963</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31467,10 +30635,8 @@
           <t>4301165182</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:11:26</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44277.59127314815</v>
       </c>
       <c r="I426" t="n">
         <v>21</v>
@@ -31546,10 +30712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:11:17</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44277.59116898148</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31621,10 +30785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:11:14</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44277.59113425926</v>
       </c>
       <c r="I428" t="n">
         <v>512</v>
@@ -31688,10 +30850,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:11:14</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44277.59113425926</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31763,10 +30923,8 @@
           <t>4301151890</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:11:05</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44277.59103009259</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31834,10 +30992,8 @@
           <t>4301158998</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:11:04</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44277.59101851852</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31909,10 +31065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:11:01</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44277.5909837963</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31988,10 +31142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:10:48</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44277.59083333334</v>
       </c>
       <c r="I433" t="n">
         <v>131</v>
@@ -32068,10 +31220,8 @@
           <t>4301162742</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:10:29</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44277.59061342593</v>
       </c>
       <c r="I434" t="n">
         <v>3</v>
@@ -32139,10 +31289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:10:26</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44277.5905787037</v>
       </c>
       <c r="I435" t="n">
         <v>954</v>
@@ -32240,10 +31388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:10:22</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44277.5905324074</v>
       </c>
       <c r="I436" t="n">
         <v>193</v>
@@ -32319,10 +31465,8 @@
           <t>4301158196</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:10:14</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44277.59043981481</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32398,10 +31542,8 @@
           <t>4301162518</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:10:14</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44277.59043981481</v>
       </c>
       <c r="I438" t="n">
         <v>2</v>
@@ -32485,10 +31627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:10:04</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44277.59032407407</v>
       </c>
       <c r="I439" t="n">
         <v>73</v>
@@ -32564,10 +31704,8 @@
           <t>4301157989</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:10:02</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44277.59030092593</v>
       </c>
       <c r="I440" t="n">
         <v>35</v>
@@ -32643,10 +31781,8 @@
           <t>4301162243</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:09:57</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44277.59024305556</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32710,10 +31846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:09:45</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44277.59010416667</v>
       </c>
       <c r="I442" t="n">
         <v>5</v>
@@ -32785,10 +31919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:09:38</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44277.59002314815</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32860,10 +31992,8 @@
           <t>4301153301</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:09:28</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44277.5899074074</v>
       </c>
       <c r="I444" t="n">
         <v>10</v>
@@ -32940,10 +32070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:09:23</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44277.58984953703</v>
       </c>
       <c r="I445" t="n">
         <v>127</v>
@@ -33011,10 +32139,8 @@
           <t>4301157344</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:09:19</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44277.58980324074</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33082,10 +32208,8 @@
           <t>4301153019</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:09:09</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44277.5896875</v>
       </c>
       <c r="I447" t="n">
         <v>5</v>
@@ -33153,10 +32277,8 @@
           <t>4301139835</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:08:51</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44277.58947916667</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33242,10 +32364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:08:46</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44277.5894212963</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33316,10 +32436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:08:44</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44277.58939814815</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33391,10 +32509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:08:42</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44277.589375</v>
       </c>
       <c r="I451" t="n">
         <v>72</v>
@@ -33458,10 +32574,8 @@
           <t>4301152494</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:08:35</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44277.58929398148</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33533,10 +32647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:08:27</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44277.58920138889</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -33600,10 +32712,8 @@
           <t>4301160721</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:08:16</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44277.58907407407</v>
       </c>
       <c r="I454" t="n">
         <v>4</v>
@@ -33675,10 +32785,8 @@
           <t>4301160695</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:08:14</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44277.58905092593</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33746,10 +32854,8 @@
           <t>4301156377</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:08:13</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44277.58903935185</v>
       </c>
       <c r="I456" t="n">
         <v>115</v>
@@ -33821,10 +32927,8 @@
           <t>4301151968</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:08:01</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44277.58890046296</v>
       </c>
       <c r="I457" t="n">
         <v>53</v>
@@ -33907,10 +33011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:58</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44277.58886574074</v>
       </c>
       <c r="I458" t="n">
         <v>1093</v>
@@ -33986,10 +33088,8 @@
           <t>4301151890</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:57</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44277.58885416666</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34057,10 +33157,8 @@
           <t>4301160413</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:55</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44277.58883101852</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34132,10 +33230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:49</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44277.58876157407</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34211,10 +33307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:43</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44277.58869212963</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34282,10 +33376,8 @@
           <t>4301160059</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:32</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44277.58856481482</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34358,10 +33450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:28</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44277.58851851852</v>
       </c>
       <c r="I464" t="n">
         <v>2</v>
@@ -34439,10 +33529,8 @@
           <t>4301155571</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:21</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44277.5884375</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34515,10 +33603,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:14</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44277.58835648148</v>
       </c>
       <c r="I466" t="n">
         <v>4</v>
@@ -34586,10 +33672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:13</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44277.58834490741</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34661,10 +33745,8 @@
           <t>4301151117</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:09</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44277.58829861111</v>
       </c>
       <c r="I468" t="n">
         <v>5</v>
@@ -34742,10 +33824,8 @@
           <t>4301144755</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:06</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44277.58826388889</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34821,10 +33901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:07:05</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44277.58825231482</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34905,10 +33983,8 @@
           <t>4301150908</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:06:55</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44277.58813657407</v>
       </c>
       <c r="I471" t="n">
         <v>25</v>
@@ -34984,10 +34060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:06:51</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44277.58809027778</v>
       </c>
       <c r="I472" t="n">
         <v>563</v>
@@ -35055,10 +34129,8 @@
           <t>4301144970</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:06:42</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44277.58798611111</v>
       </c>
       <c r="I473" t="n">
         <v>33</v>
@@ -35134,10 +34206,8 @@
           <t>4301149267</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:06:40</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44277.58796296296</v>
       </c>
       <c r="I474" t="n">
         <v>30</v>
@@ -35209,10 +34279,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:06:38</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44277.58793981482</v>
       </c>
       <c r="I475" t="n">
         <v>2</v>
@@ -35284,10 +34352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:06:34</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44277.58789351852</v>
       </c>
       <c r="I476" t="n">
         <v>2</v>
@@ -35355,10 +34421,8 @@
           <t>4301144755</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:06:26</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44277.58780092592</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35430,10 +34494,8 @@
           <t>4301150261</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:06:14</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44277.58766203704</v>
       </c>
       <c r="I478" t="n">
         <v>3</v>
@@ -35509,10 +34571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:06:13</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44277.58765046296</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35585,10 +34645,8 @@
           <t>4301139835</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:46</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44277.58733796296</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35667,10 +34725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:44</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44277.58731481482</v>
       </c>
       <c r="I481" t="n">
         <v>342</v>
@@ -35738,10 +34794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:41</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44277.58728009259</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35809,10 +34863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:37</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44277.58723379629</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35888,10 +34940,8 @@
           <t>4301148226</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:35</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44277.58721064815</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -35967,10 +35017,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:20</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44277.58703703704</v>
       </c>
       <c r="I485" t="n">
         <v>6</v>
@@ -36039,10 +35087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:18</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44277.58701388889</v>
       </c>
       <c r="I486" t="n">
         <v>91</v>
@@ -36106,10 +35152,8 @@
           <t>4301143553</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:13</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44277.58695601852</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36181,10 +35225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:09</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44277.58690972222</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36260,10 +35302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:08</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44277.58689814815</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36339,10 +35379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:06</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44277.586875</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36414,10 +35452,8 @@
           <t>4301139123</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:01</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44277.58681712963</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36489,10 +35525,8 @@
           <t>4301143372</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:05:01</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44277.58681712963</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36570,10 +35604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:50</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44277.58668981482</v>
       </c>
       <c r="I493" t="n">
         <v>421</v>
@@ -36649,10 +35681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:43</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44277.58660879629</v>
       </c>
       <c r="I494" t="n">
         <v>8</v>
@@ -36716,10 +35746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:42</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44277.58659722222</v>
       </c>
       <c r="I495" t="n">
         <v>3</v>
@@ -36787,10 +35815,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:42</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44277.58659722222</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36862,10 +35888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:39</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44277.5865625</v>
       </c>
       <c r="I497" t="n">
         <v>1</v>
@@ -36937,10 +35961,8 @@
           <t>4301147309</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:39</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44277.5865625</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37012,10 +36034,8 @@
           <t>4301147307</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:39</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44277.5865625</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -37091,10 +36111,8 @@
           <t>4301142942</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:33</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44277.58649305555</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -37162,10 +36180,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:28</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44277.58643518519</v>
       </c>
       <c r="I501" t="n">
         <v>62</v>
@@ -37237,10 +36253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:16</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44277.58629629629</v>
       </c>
       <c r="I502" t="n">
         <v>282</v>
@@ -37308,10 +36322,8 @@
           <t>4301146947</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:16</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44277.58629629629</v>
       </c>
       <c r="I503" t="n">
         <v>2</v>
@@ -37383,10 +36395,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:06</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44277.58618055555</v>
       </c>
       <c r="I504" t="n">
         <v>13</v>
@@ -37456,10 +36466,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:05</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44277.58616898148</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37531,10 +36539,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:04:03</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44277.58614583333</v>
       </c>
       <c r="I506" t="n">
         <v>4</v>
@@ -37602,10 +36608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:59</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44277.58609953704</v>
       </c>
       <c r="I507" t="n">
         <v>220</v>
@@ -37669,10 +36673,8 @@
           <t>4301137050</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:53</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44277.58603009259</v>
       </c>
       <c r="I508" t="n">
         <v>2</v>
@@ -37736,10 +36738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:40</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44277.58587962963</v>
       </c>
       <c r="I509" t="n">
         <v>10</v>
@@ -37809,10 +36809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:38</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44277.58585648148</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37872,10 +36870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:34</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44277.58581018518</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37951,10 +36947,8 @@
           <t>4301137050</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:30</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44277.58576388889</v>
       </c>
       <c r="I512" t="n">
         <v>43</v>
@@ -38018,10 +37012,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:29</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44277.58575231482</v>
       </c>
       <c r="I513" t="n">
         <v>69</v>
@@ -38093,10 +37085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:22</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44277.5856712963</v>
       </c>
       <c r="I514" t="n">
         <v>3</v>
@@ -38156,10 +37146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:13</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44277.58556712963</v>
       </c>
       <c r="I515" t="n">
         <v>492</v>
@@ -38227,10 +37215,8 @@
           <t>4301137050</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:11</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44277.58554398148</v>
       </c>
       <c r="I516" t="n">
         <v>53</v>
@@ -38294,10 +37280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:07</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44277.58549768518</v>
       </c>
       <c r="I517" t="n">
         <v>80</v>
@@ -38365,10 +37349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:01</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44277.58542824074</v>
       </c>
       <c r="I518" t="n">
         <v>23</v>
@@ -38437,10 +37419,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:03:01</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44277.58542824074</v>
       </c>
       <c r="I519" t="n">
         <v>24</v>
@@ -38512,10 +37492,8 @@
           <t>4301145647</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:57</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44277.58538194445</v>
       </c>
       <c r="I520" t="n">
         <v>3</v>
@@ -38583,10 +37561,8 @@
           <t>4301137050</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:53</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44277.58533564815</v>
       </c>
       <c r="I521" t="n">
         <v>16</v>
@@ -38650,10 +37626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:52</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44277.58532407408</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38723,10 +37697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:51</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44277.5853125</v>
       </c>
       <c r="I523" t="n">
         <v>758</v>
@@ -38790,10 +37762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:46</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44277.58525462963</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38869,10 +37839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:45</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44277.58524305555</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38948,10 +37916,8 @@
           <t>4301136906</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:44</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44277.58523148148</v>
       </c>
       <c r="I526" t="n">
         <v>5</v>
@@ -39023,10 +37989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:33</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44277.58510416667</v>
       </c>
       <c r="I527" t="n">
         <v>1227</v>
@@ -39090,10 +38054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:32</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44277.58509259259</v>
       </c>
       <c r="I528" t="n">
         <v>41</v>
@@ -39169,10 +38131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:31</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44277.58508101852</v>
       </c>
       <c r="I529" t="n">
         <v>6</v>
@@ -39252,10 +38212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:22</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44277.58497685185</v>
       </c>
       <c r="I530" t="n">
         <v>9</v>
@@ -39319,10 +38277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:19</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44277.58494212963</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39394,10 +38350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:16</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44277.58490740741</v>
       </c>
       <c r="I532" t="n">
         <v>15</v>
@@ -39473,10 +38427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:16</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44277.58490740741</v>
       </c>
       <c r="I533" t="n">
         <v>12</v>
@@ -39552,10 +38504,8 @@
           <t>4301145031</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:15</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44277.58489583333</v>
       </c>
       <c r="I534" t="n">
         <v>29</v>
@@ -39623,10 +38573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:05</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44277.58478009259</v>
       </c>
       <c r="I535" t="n">
         <v>5</v>
@@ -39702,10 +38650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:01</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44277.5847337963</v>
       </c>
       <c r="I536" t="n">
         <v>89</v>
@@ -39777,10 +38723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:02:00</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44277.58472222222</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -39852,10 +38796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:58</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44277.58469907408</v>
       </c>
       <c r="I538" t="n">
         <v>97</v>
@@ -39919,10 +38861,8 @@
           <t>4301136167</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:58</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44277.58469907408</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39990,10 +38930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:50</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44277.58460648148</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -40061,10 +38999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:49</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44277.58459490741</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -40132,10 +39068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:48</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44277.58458333334</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -40207,10 +39141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:48</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44277.58458333334</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40285,10 +39217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:44</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44277.58453703704</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40356,10 +39286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:41</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44277.58450231481</v>
       </c>
       <c r="I545" t="n">
         <v>1</v>
@@ -40431,10 +39359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:40</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44277.58449074074</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40494,10 +39420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:32</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44277.58439814814</v>
       </c>
       <c r="I547" t="n">
         <v>7</v>
@@ -40576,10 +39500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:30</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44277.584375</v>
       </c>
       <c r="I548" t="n">
         <v>88</v>
@@ -40647,10 +39569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:28</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44277.58435185185</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40726,10 +39646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:28</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44277.58435185185</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40797,10 +39715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:28</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44277.58435185185</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40864,10 +39780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:25</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44277.58431712963</v>
       </c>
       <c r="I552" t="n">
         <v>2168</v>
@@ -40939,10 +39853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:17</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44277.58422453704</v>
       </c>
       <c r="I553" t="n">
         <v>244</v>
@@ -41018,10 +39930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:15</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44277.58420138889</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41085,10 +39995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:15</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44277.58420138889</v>
       </c>
       <c r="I555" t="n">
         <v>2</v>
@@ -41152,10 +40060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:15</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44277.58420138889</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -41223,10 +40129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:13</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44277.58417824074</v>
       </c>
       <c r="I557" t="n">
         <v>2</v>
@@ -41294,10 +40198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:11</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44277.58415509259</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41361,10 +40263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:07</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44277.5841087963</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41424,10 +40324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:01:01</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44277.58403935185</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41495,10 +40393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:59</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44277.58401620371</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41566,10 +40462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:59</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44277.58401620371</v>
       </c>
       <c r="I562" t="n">
         <v>1</v>
@@ -41637,10 +40531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:57</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44277.58399305555</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41704,10 +40596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:57</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44277.58399305555</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41775,10 +40665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:55</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44277.58396990741</v>
       </c>
       <c r="I565" t="n">
         <v>7</v>
@@ -41854,10 +40742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:53</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44277.58394675926</v>
       </c>
       <c r="I566" t="n">
         <v>1</v>
@@ -41921,10 +40807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:49</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44277.58390046296</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -41988,10 +40872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:46</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44277.58386574074</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42059,10 +40941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:45</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44277.58385416667</v>
       </c>
       <c r="I569" t="n">
         <v>1</v>
@@ -42138,10 +41018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:45</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44277.58385416667</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42217,10 +41095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:31</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44277.58369212963</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42284,10 +41160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:30</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44277.58368055556</v>
       </c>
       <c r="I572" t="n">
         <v>1</v>
@@ -42351,10 +41225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:22</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44277.58358796296</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42422,10 +41294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:21</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44277.58357638889</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42497,10 +41367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:20</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44277.58356481481</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42573,10 +41441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:19</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44277.58355324074</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42640,10 +41506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-03-22 14:00:17</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44277.58353009259</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
